--- a/Сustomer_churn_rate_file.xlsx
+++ b/Сustomer_churn_rate_file.xlsx
@@ -515,52 +515,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9515873015873015</v>
+        <v>0.953968253968254</v>
       </c>
       <c r="C2">
-        <v>0.9384920634920635</v>
+        <v>0.9408730158730159</v>
       </c>
       <c r="D2">
-        <v>0.926984126984127</v>
+        <v>0.9293650793650794</v>
       </c>
       <c r="E2">
-        <v>0.8186507936507936</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="F2">
-        <v>0.8043650793650794</v>
+        <v>0.8067460317460318</v>
       </c>
       <c r="G2">
-        <v>0.7912698412698412</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="H2">
-        <v>0.778968253968254</v>
+        <v>0.7813492063492063</v>
       </c>
       <c r="I2">
-        <v>0.773015873015873</v>
+        <v>0.7753968253968254</v>
       </c>
       <c r="J2">
-        <v>0.7662698412698413</v>
+        <v>0.7686507936507937</v>
       </c>
       <c r="K2">
-        <v>0.7603174603174603</v>
+        <v>0.7623015873015873</v>
       </c>
       <c r="L2">
-        <v>0.7587301587301587</v>
+        <v>0.7607142857142857</v>
       </c>
       <c r="M2">
-        <v>0.7615079365079365</v>
+        <v>0.7634920634920634</v>
       </c>
       <c r="N2">
-        <v>0.7503968253968254</v>
+        <v>0.7523809523809524</v>
       </c>
       <c r="O2">
-        <v>0.7142857142857143</v>
+        <v>0.7154761904761905</v>
       </c>
       <c r="P2">
-        <v>0.6865079365079365</v>
+        <v>0.6869047619047619</v>
       </c>
       <c r="Q2">
-        <v>0.5591269841269841</v>
+        <v>0.5595238095238095</v>
       </c>
       <c r="R2">
         <v>0.5480158730158731</v>
@@ -652,52 +652,52 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1808510638297872</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="E2">
-        <v>0.2061855670103093</v>
+        <v>0.1894736842105263</v>
       </c>
       <c r="F2">
-        <v>0.1801801801801802</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="G2">
-        <v>0.01886792452830189</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="H2">
-        <v>0.05084745762711865</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="I2">
-        <v>0.04895104895104895</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="J2">
-        <v>0.02597402597402598</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="K2">
-        <v>0.06060606060606061</v>
+        <v>0.04320987654320987</v>
       </c>
       <c r="L2">
-        <v>0.06214689265536723</v>
+        <v>0.05142857142857143</v>
       </c>
       <c r="M2">
-        <v>0.138728323699422</v>
+        <v>0.1183431952662722</v>
       </c>
       <c r="N2">
-        <v>0.108433734939759</v>
+        <v>0.06918238993710692</v>
       </c>
       <c r="O2">
-        <v>0.0898876404494382</v>
+        <v>0.07428571428571429</v>
       </c>
       <c r="P2">
-        <v>0.07142857142857142</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="Q2">
-        <v>0.1036269430051813</v>
+        <v>0.08465608465608465</v>
       </c>
       <c r="R2">
-        <v>0.1116504854368932</v>
+        <v>0.09852216748768473</v>
       </c>
       <c r="S2">
-        <v>0.1076923076923077</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E3">
         <v>0.09090909090909091</v>
@@ -723,10 +723,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="G3">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -738,25 +738,25 @@
         <v>0.1041666666666667</v>
       </c>
       <c r="L3">
-        <v>0.1304347826086956</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="M3">
-        <v>0.04761904761904762</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="N3">
-        <v>0.02325581395348837</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0.04347826086956522</v>
       </c>
       <c r="P3">
-        <v>0.1296296296296296</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="Q3">
-        <v>0.1132075471698113</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="R3">
-        <v>0.1940298507462687</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="S3">
         <v>0.03333333333333333</v>
@@ -776,52 +776,52 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01492537313432836</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02247191011235955</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="F4">
-        <v>0.03932584269662921</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G4">
-        <v>0.03723404255319149</v>
+        <v>0.03523035230352303</v>
       </c>
       <c r="H4">
-        <v>0.03535353535353535</v>
+        <v>0.03341902313624678</v>
       </c>
       <c r="I4">
-        <v>0.06601466992665037</v>
+        <v>0.05527638190954774</v>
       </c>
       <c r="J4">
-        <v>0.07073170731707316</v>
+        <v>0.06483790523690773</v>
       </c>
       <c r="K4">
-        <v>0.03931203931203931</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="L4">
-        <v>0.08294930875576037</v>
+        <v>0.06205250596658711</v>
       </c>
       <c r="M4">
-        <v>0.05417607223476298</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="N4">
-        <v>0.09070796460176991</v>
+        <v>0.08558558558558559</v>
       </c>
       <c r="O4">
-        <v>0.06415929203539823</v>
+        <v>0.06487695749440715</v>
       </c>
       <c r="P4">
-        <v>0.09074074074074075</v>
+        <v>0.07400379506641366</v>
       </c>
       <c r="Q4">
-        <v>0.1051805337519623</v>
+        <v>0.08667736757624397</v>
       </c>
       <c r="R4">
-        <v>0.1117886178861789</v>
+        <v>0.1073619631901841</v>
       </c>
       <c r="S4">
-        <v>0.0875251509054326</v>
+        <v>0.07918781725888324</v>
       </c>
       <c r="T4">
         <v>0.002828854314002829</v>
@@ -910,52 +910,52 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1875</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E2">
-        <v>0.1666666666666667</v>
+        <v>0.15</v>
       </c>
       <c r="F2">
-        <v>0.08816705336426914</v>
+        <v>0.08644859813084112</v>
       </c>
       <c r="G2">
-        <v>0.03811659192825112</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="H2">
-        <v>0.04347826086956522</v>
+        <v>0.03354297693920336</v>
       </c>
       <c r="I2">
-        <v>0.06451612903225806</v>
+        <v>0.05384615384615385</v>
       </c>
       <c r="J2">
-        <v>0.06088560885608856</v>
+        <v>0.05400372439478585</v>
       </c>
       <c r="K2">
-        <v>0.05156537753222836</v>
+        <v>0.04638218923933209</v>
       </c>
       <c r="L2">
-        <v>0.07428571428571429</v>
+        <v>0.06177606177606178</v>
       </c>
       <c r="M2">
-        <v>0.0728744939271255</v>
+        <v>0.0653061224489796</v>
       </c>
       <c r="N2">
-        <v>0.07905982905982906</v>
+        <v>0.0670995670995671</v>
       </c>
       <c r="O2">
-        <v>0.05922551252847381</v>
+        <v>0.05707762557077625</v>
       </c>
       <c r="P2">
-        <v>0.06490384615384616</v>
+        <v>0.06038647342995169</v>
       </c>
       <c r="Q2">
-        <v>0.06106870229007633</v>
+        <v>0.0586734693877551</v>
       </c>
       <c r="R2">
         <v>0.08847184986595175</v>
       </c>
       <c r="S2">
-        <v>0.04970760233918128</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -990,34 +990,34 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.03896103896103896</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="L3">
-        <v>0.1060606060606061</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="M3">
-        <v>0.08536585365853659</v>
+        <v>0.07643312101910828</v>
       </c>
       <c r="N3">
-        <v>0.1191709844559585</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="O3">
-        <v>0.08860759493670886</v>
+        <v>0.08260869565217391</v>
       </c>
       <c r="P3">
-        <v>0.1149732620320856</v>
+        <v>0.08635097493036212</v>
       </c>
       <c r="Q3">
-        <v>0.1408163265306122</v>
+        <v>0.1082802547770701</v>
       </c>
       <c r="R3">
-        <v>0.1278280542986425</v>
+        <v>0.1189931350114417</v>
       </c>
       <c r="S3">
-        <v>0.1025358324145535</v>
+        <v>0.09354120267260579</v>
       </c>
       <c r="T3">
         <v>0.004480955937266617</v>

--- a/Сustomer_churn_rate_file.xlsx
+++ b/Сustomer_churn_rate_file.xlsx
@@ -515,58 +515,58 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.953968253968254</v>
+        <v>0.9964285714285714</v>
       </c>
       <c r="C2">
-        <v>0.9408730158730159</v>
+        <v>0.9809523809523809</v>
       </c>
       <c r="D2">
-        <v>0.9293650793650794</v>
+        <v>0.9682539682539683</v>
       </c>
       <c r="E2">
-        <v>0.8214285714285714</v>
+        <v>0.8595238095238096</v>
       </c>
       <c r="F2">
-        <v>0.8067460317460318</v>
+        <v>0.844047619047619</v>
       </c>
       <c r="G2">
-        <v>0.7936507936507936</v>
+        <v>0.828968253968254</v>
       </c>
       <c r="H2">
-        <v>0.7813492063492063</v>
+        <v>0.8142857142857143</v>
       </c>
       <c r="I2">
-        <v>0.7753968253968254</v>
+        <v>0.8063492063492064</v>
       </c>
       <c r="J2">
-        <v>0.7686507936507937</v>
+        <v>0.7976190476190477</v>
       </c>
       <c r="K2">
-        <v>0.7623015873015873</v>
+        <v>0.7861111111111111</v>
       </c>
       <c r="L2">
-        <v>0.7607142857142857</v>
+        <v>0.7821428571428571</v>
       </c>
       <c r="M2">
-        <v>0.7634920634920634</v>
+        <v>0.7805555555555556</v>
       </c>
       <c r="N2">
-        <v>0.7523809523809524</v>
+        <v>0.7682539682539683</v>
       </c>
       <c r="O2">
-        <v>0.7154761904761905</v>
+        <v>0.7265873015873016</v>
       </c>
       <c r="P2">
-        <v>0.6869047619047619</v>
+        <v>0.6912698412698413</v>
       </c>
       <c r="Q2">
-        <v>0.5595238095238095</v>
+        <v>0.5603174603174603</v>
       </c>
       <c r="R2">
-        <v>0.5480158730158731</v>
+        <v>0.544047619047619</v>
       </c>
       <c r="S2">
-        <v>0.3412698412698413</v>
+        <v>0.3373015873015873</v>
       </c>
     </row>
   </sheetData>
@@ -652,52 +652,52 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1444444444444444</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="E2">
-        <v>0.1894736842105263</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="F2">
-        <v>0.1891891891891892</v>
+        <v>0.28</v>
       </c>
       <c r="G2">
-        <v>0.009523809523809525</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="H2">
-        <v>0.02608695652173913</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="I2">
-        <v>0.04225352112676056</v>
+        <v>0.06306306306306306</v>
       </c>
       <c r="J2">
-        <v>0.0131578947368421</v>
+        <v>0.04</v>
       </c>
       <c r="K2">
-        <v>0.04320987654320987</v>
+        <v>0.07913669064748201</v>
       </c>
       <c r="L2">
-        <v>0.05142857142857143</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="M2">
-        <v>0.1183431952662722</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="N2">
-        <v>0.06918238993710692</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="O2">
-        <v>0.07428571428571429</v>
+        <v>0.09036144578313253</v>
       </c>
       <c r="P2">
-        <v>0.05699481865284974</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="Q2">
-        <v>0.08465608465608465</v>
+        <v>0.1058201058201058</v>
       </c>
       <c r="R2">
-        <v>0.09852216748768473</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="S2">
-        <v>0.08900523560209424</v>
+        <v>0.1015228426395939</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -714,49 +714,49 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1428571428571428</v>
+        <v>0.6</v>
       </c>
       <c r="E3">
-        <v>0.09090909090909091</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="F3">
-        <v>0.1428571428571428</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02380952380952381</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="K3">
-        <v>0.1041666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="L3">
-        <v>0.09090909090909091</v>
+        <v>0.15</v>
       </c>
       <c r="M3">
-        <v>0.02439024390243903</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="O3">
-        <v>0.04347826086956522</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P3">
-        <v>0.1132075471698113</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="Q3">
-        <v>0.07843137254901961</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="R3">
-        <v>0.1818181818181818</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="S3">
         <v>0.03333333333333333</v>
@@ -776,55 +776,55 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E4">
-        <v>0.01219512195121951</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="F4">
-        <v>0.03448275862068965</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="G4">
-        <v>0.03523035230352303</v>
+        <v>0.04361370716510903</v>
       </c>
       <c r="H4">
-        <v>0.03341902313624678</v>
+        <v>0.04093567251461988</v>
       </c>
       <c r="I4">
-        <v>0.05527638190954774</v>
+        <v>0.07242339832869081</v>
       </c>
       <c r="J4">
-        <v>0.06483790523690773</v>
+        <v>0.07713498622589532</v>
       </c>
       <c r="K4">
-        <v>0.03508771929824561</v>
+        <v>0.0467032967032967</v>
       </c>
       <c r="L4">
-        <v>0.06205250596658711</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="M4">
-        <v>0.05263157894736842</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="N4">
-        <v>0.08558558558558559</v>
+        <v>0.09715639810426541</v>
       </c>
       <c r="O4">
-        <v>0.06487695749440715</v>
+        <v>0.06872037914691943</v>
       </c>
       <c r="P4">
-        <v>0.07400379506641366</v>
+        <v>0.08897485493230174</v>
       </c>
       <c r="Q4">
-        <v>0.08667736757624397</v>
+        <v>0.1006389776357828</v>
       </c>
       <c r="R4">
-        <v>0.1073619631901841</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S4">
-        <v>0.07918781725888324</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="T4">
-        <v>0.002828854314002829</v>
+        <v>0.002814919071076707</v>
       </c>
     </row>
   </sheetData>
@@ -910,52 +910,52 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1428571428571428</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="E2">
-        <v>0.15</v>
+        <v>0.2376237623762376</v>
       </c>
       <c r="F2">
-        <v>0.08644859813084112</v>
+        <v>0.09768637532133675</v>
       </c>
       <c r="G2">
-        <v>0.03167420814479638</v>
+        <v>0.03940886699507389</v>
       </c>
       <c r="H2">
-        <v>0.03354297693920336</v>
+        <v>0.0467706013363029</v>
       </c>
       <c r="I2">
-        <v>0.05384615384615385</v>
+        <v>0.06626506024096386</v>
       </c>
       <c r="J2">
-        <v>0.05400372439478585</v>
+        <v>0.06189555125725339</v>
       </c>
       <c r="K2">
-        <v>0.04638218923933209</v>
+        <v>0.05363984674329502</v>
       </c>
       <c r="L2">
-        <v>0.06177606177606178</v>
+        <v>0.07450980392156863</v>
       </c>
       <c r="M2">
-        <v>0.0653061224489796</v>
+        <v>0.0743801652892562</v>
       </c>
       <c r="N2">
-        <v>0.0670995670995671</v>
+        <v>0.07974137931034483</v>
       </c>
       <c r="O2">
-        <v>0.05707762557077625</v>
+        <v>0.05963302752293578</v>
       </c>
       <c r="P2">
-        <v>0.06038647342995169</v>
+        <v>0.06280193236714976</v>
       </c>
       <c r="Q2">
-        <v>0.0586734693877551</v>
+        <v>0.06106870229007633</v>
       </c>
       <c r="R2">
         <v>0.08847184986595175</v>
       </c>
       <c r="S2">
-        <v>0.03846153846153846</v>
+        <v>0.04913294797687862</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -990,37 +990,37 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K3">
-        <v>0.01428571428571429</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L3">
-        <v>0.05833333333333333</v>
+        <v>0.1728395061728395</v>
       </c>
       <c r="M3">
-        <v>0.07643312101910828</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="N3">
-        <v>0.09836065573770492</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="O3">
-        <v>0.08260869565217391</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="P3">
-        <v>0.08635097493036212</v>
+        <v>0.1198830409356725</v>
       </c>
       <c r="Q3">
-        <v>0.1082802547770701</v>
+        <v>0.1371308016877637</v>
       </c>
       <c r="R3">
-        <v>0.1189931350114417</v>
+        <v>0.1262798634812287</v>
       </c>
       <c r="S3">
-        <v>0.09354120267260579</v>
+        <v>0.09989023051591657</v>
       </c>
       <c r="T3">
-        <v>0.004480955937266617</v>
+        <v>0.00446096654275093</v>
       </c>
     </row>
   </sheetData>

--- a/Сustomer_churn_rate_file.xlsx
+++ b/Сustomer_churn_rate_file.xlsx
@@ -648,9 +648,6 @@
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
         <v>0.3035714285714285</v>
       </c>
@@ -698,9 +695,6 @@
       </c>
       <c r="S2">
         <v>0.1015228426395939</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -710,9 +704,6 @@
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
         <v>0.6</v>
       </c>
@@ -727,9 +718,6 @@
       </c>
       <c r="H3">
         <v>0.04</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
       </c>
       <c r="J3">
         <v>0.02941176470588235</v>
@@ -771,9 +759,6 @@
       </c>
       <c r="B4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
       </c>
       <c r="D4">
         <v>0.125</v>
@@ -906,9 +891,6 @@
       <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
         <v>0.3181818181818182</v>
       </c>
@@ -956,9 +938,6 @@
       </c>
       <c r="S2">
         <v>0.04913294797687862</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -967,27 +946,6 @@
       </c>
       <c r="B3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
       </c>
       <c r="J3">
         <v>0.4</v>
